--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T18:54:17+00:00</t>
+    <t>2021-11-22T19:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T19:27:26+00:00</t>
+    <t>2021-11-22T19:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Indicates the confidentality of the practitioner's information.</t>
+    <t>Indicates the confidentiality of the practitioner's information.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -385,7 +385,7 @@
 </t>
   </si>
   <si>
-    <t>BC Valid Period</t>
+    <t>BC Valid Period Extension</t>
   </si>
   <si>
     <t>The period for when the extended element is valid.</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T19:57:31+00:00</t>
+    <t>2021-11-22T20:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T20:03:31+00:00</t>
+    <t>2021-11-22T20:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T20:11:04+00:00</t>
+    <t>2021-11-22T20:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T20:15:42+00:00</t>
+    <t>2021-11-22T21:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1604,13 +1604,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T21:41:13+00:00</t>
+    <t>2021-11-22T22:24:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T22:24:52+00:00</t>
+    <t>2021-11-23T02:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T02:50:10+00:00</t>
+    <t>2021-11-23T06:12:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T06:12:32+00:00</t>
+    <t>2021-12-01T17:57:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T17:57:28+00:00</t>
+    <t>2021-12-01T22:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T22:25:03+00:00</t>
+    <t>2022-02-04T17:09:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T17:09:38+00:00</t>
+    <t>2022-02-04T17:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T17:17:34+00:00</t>
+    <t>2022-02-15T20:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T20:19:16+00:00</t>
+    <t>2022-02-15T22:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T22:18:58+00:00</t>
+    <t>2022-02-25T21:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:32:08+00:00</t>
+    <t>2022-02-25T23:42:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T23:42:21+00:00</t>
+    <t>2022-03-01T22:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T22:22:23+00:00</t>
+    <t>2022-03-08T22:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T22:00:29+00:00</t>
+    <t>2022-03-08T23:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T23:12:25+00:00</t>
+    <t>2022-03-10T19:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T19:28:49+00:00</t>
+    <t>2022-03-14T17:32:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T17:32:26+00:00</t>
+    <t>2022-03-23T21:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:05:38+00:00</t>
+    <t>2022-04-04T22:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T22:47:24+00:00</t>
+    <t>2022-04-04T23:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T23:22:48+00:00</t>
+    <t>2022-04-05T19:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T19:12:19+00:00</t>
+    <t>2022-04-05T19:27:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T19:27:34+00:00</t>
+    <t>2022-04-05T19:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T19:41:50+00:00</t>
+    <t>2022-04-06T13:16:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T13:16:59+00:00</t>
+    <t>2022-04-06T16:17:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:17:08+00:00</t>
+    <t>2022-04-26T19:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T19:13:25+00:00</t>
+    <t>2022-05-09T20:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T20:12:27+00:00</t>
+    <t>2022-05-10T17:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T17:43:26+00:00</t>
+    <t>2022-05-11T20:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T20:17:39+00:00</t>
+    <t>2022-05-16T21:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:00:38+00:00</t>
+    <t>2022-05-18T16:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T16:55:23+00:00</t>
+    <t>2022-05-19T15:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T15:42:32+00:00</t>
+    <t>2022-05-19T16:14:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T16:14:42+00:00</t>
+    <t>2022-05-19T19:35:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T19:35:11+00:00</t>
+    <t>2022-05-19T22:20:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:20:16+00:00</t>
+    <t>2022-05-27T21:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T21:15:08+00:00</t>
+    <t>2022-06-02T17:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-02T17:40:37+00:00</t>
+    <t>2022-06-07T22:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T22:53:01+00:00</t>
+    <t>2022-06-08T20:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T20:49:38+00:00</t>
+    <t>2022-06-28T17:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T17:55:15+00:00</t>
+    <t>2022-06-29T20:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T20:55:42+00:00</t>
+    <t>2022-06-30T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T17:20:30+00:00</t>
+    <t>2022-07-05T22:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T22:19:03+00:00</t>
+    <t>2022-07-20T17:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -743,41 +743,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T17:46:16+00:00</t>
+    <t>2022-07-21T17:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$15</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:40:15+00:00</t>
+    <t>2022-07-25T18:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -401,7 +401,20 @@
     <t>BC End Reason Extension</t>
   </si>
   <si>
-    <t>Tracking end reasons.</t>
+    <t>Tracking end reason.</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-owner-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Owner Extension</t>
+  </si>
+  <si>
+    <t>Tracking the owner.</t>
   </si>
   <si>
     <t>base64Binary
@@ -733,7 +746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1996,23 +2009,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2021,24 +2036,22 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2080,27 +2093,27 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2108,10 +2121,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2123,22 +2136,24 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>75</v>
@@ -2180,10 +2195,10 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -2192,14 +2207,114 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>105</v>
       </c>
     </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ14">
+  <autoFilter ref="A1:AJ15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2209,7 +2324,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:23:26+00:00</t>
+    <t>2022-07-25T18:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:27:38+00:00</t>
+    <t>2022-08-02T22:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T22:12:01+00:00</t>
+    <t>2022-08-08T16:02:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:02:07+00:00</t>
+    <t>2022-08-23T21:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:32:32+00:00</t>
+    <t>2022-08-23T22:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T22:37:21+00:00</t>
+    <t>2022-08-24T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T23:51:36+00:00</t>
+    <t>2022-09-01T16:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:06:59+00:00</t>
+    <t>2022-09-01T16:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:21:50+00:00</t>
+    <t>2022-09-01T16:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:52:18+00:00</t>
+    <t>2022-09-01T17:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T17:06:09+00:00</t>
+    <t>2022-09-01T19:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T19:48:46+00:00</t>
+    <t>2022-09-27T22:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:39:14+00:00</t>
+    <t>2022-10-05T22:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T22:20:29+00:00</t>
+    <t>2022-10-11T16:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,56 +256,56 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>code</t>
@@ -997,7 +997,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1016,25 +1016,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1085,13 +1085,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1100,12 +1100,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1128,13 +1128,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1173,19 +1173,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1197,7 +1197,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>95</v>
@@ -1215,10 +1215,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>96</v>
@@ -1230,13 +1230,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1287,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1299,7 +1299,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1318,25 +1318,25 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1387,13 +1387,13 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
@@ -1402,7 +1402,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1430,13 +1430,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1475,19 +1475,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1499,7 +1499,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -1515,10 +1515,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1592,10 +1592,10 @@
         <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
@@ -1617,10 +1617,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>96</v>
@@ -1693,7 +1693,7 @@
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
@@ -1717,10 +1717,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1793,7 +1793,7 @@
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>117</v>
@@ -1817,10 +1817,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>96</v>
@@ -1889,7 +1889,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1901,7 +1901,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>121</v>
@@ -1922,7 +1922,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>96</v>
@@ -1991,7 +1991,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2003,7 +2003,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>125</v>
@@ -2024,7 +2024,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>96</v>
@@ -2093,7 +2093,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2105,7 +2105,7 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -2121,10 +2121,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2198,10 +2198,10 @@
         <v>104</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
@@ -2301,7 +2301,7 @@
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T16:14:09+00:00</t>
+    <t>2022-10-17T23:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:41:26+00:00</t>
+    <t>2022-10-27T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:03:31+00:00</t>
+    <t>2022-10-27T21:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:56:37+00:00</t>
+    <t>2022-10-28T23:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T23:08:22+00:00</t>
+    <t>2022-10-31T19:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T19:28:42+00:00</t>
+    <t>2022-11-01T15:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-confidentiality-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T15:06:35+00:00</t>
+    <t>2022-11-14T22:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
